--- a/documents/Published/Quadrant Chart/QuadrantChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Quadrant Chart/QuadrantChartByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAQUser\source\repos\NewRepo2\documents\Published\Quadrant Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAQUser\source\Repos\PowerBI-visuals2\documents\Published\Quadrant Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA03EB3-53FD-403C-9858-80E37D718505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB692EF-0DE8-4B43-87CD-82E9B3907386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6ADFF9B-929E-442F-838C-1C0C2035D4F3}"/>
   </bookViews>
@@ -382,32 +382,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,6 +424,2827 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2503080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FAF083-CD1A-448F-AF40-F2673C9AFF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13820775" y="590550"/>
+          <a:ext cx="2455455" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2481337</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015C9D2A-969C-4832-8539-C2B3454DC079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16706851" y="609600"/>
+          <a:ext cx="2328936" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2609851</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>494473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DBF405-E940-41AC-85DC-8C7FB236FCE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18821401" y="600076"/>
+          <a:ext cx="2457450" cy="1923222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>428156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DD5A7F-F373-46AA-8FAA-6B20CE002ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22126575" y="628650"/>
+          <a:ext cx="2343150" cy="1828331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>680299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6E86CD-8C69-4259-AAFC-8E44E14927B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13820775" y="2819400"/>
+          <a:ext cx="2638425" cy="2061424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2552043</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3F76EF-D136-44C6-B9A4-278F688CA321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16573500" y="2809875"/>
+          <a:ext cx="2532993" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2769349</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4F8936-856B-497B-8CE7-407C328B22CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19230975" y="2781300"/>
+          <a:ext cx="2674099" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2590800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>661248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D918E9-FC74-4770-9859-802A9DF54972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22145625" y="2914651"/>
+          <a:ext cx="2514600" cy="1947122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>549358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA73CA1-CC3D-4137-9016-3C42E965AFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13858875" y="5372101"/>
+          <a:ext cx="2609850" cy="2044782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2539043</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>533401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4368A435-9FCE-4384-ADDF-9DA50004AD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16592550" y="5419726"/>
+          <a:ext cx="2500943" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2763347</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6079998-3BB1-47A7-98F4-AE8B574CE506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19230975" y="5381625"/>
+          <a:ext cx="2668097" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2729163</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>581026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B553270-1302-4855-A4BC-A6AE0640EC15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22202775" y="5353051"/>
+          <a:ext cx="2691063" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2717282</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C692F662-6444-4C7D-9688-B426D1A54877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13925550" y="7715250"/>
+          <a:ext cx="2564882" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2615356</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103A0A21-5C58-4FF2-92BD-54DEDF4FC174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16602075" y="7743825"/>
+          <a:ext cx="2567731" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2835006</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4DAF9D-9708-4BA5-BBC3-064E2FE64347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19316701" y="7734300"/>
+          <a:ext cx="2749280" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2743950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC680307-1C82-4837-A0F5-9B3C0ABF95D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22231350" y="7762875"/>
+          <a:ext cx="2677275" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2619600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>704851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBABA5FC-A07B-4313-9CC9-0A22922AE6AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13858875" y="10191751"/>
+          <a:ext cx="2533875" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2608948</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>714376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5C517B-484A-4A1A-8F49-280ACAFDCBD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16602075" y="10163176"/>
+          <a:ext cx="2561323" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2749583</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E583F4-00DD-449A-960E-96103B6BFAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19383375" y="10182225"/>
+          <a:ext cx="2597183" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2684986</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>762001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E446E4-A49C-41D5-BC54-699FEDD8175C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22212300" y="10153651"/>
+          <a:ext cx="2637361" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2705100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>318706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947C9B1D-9A19-486F-9CE0-24FDE792AD6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13896975" y="12458700"/>
+          <a:ext cx="2581275" cy="2023681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2638426</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>292088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03802000-2C5D-439D-BD3D-EF0AE227F66D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16640176" y="12439651"/>
+          <a:ext cx="2552700" cy="2016112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2730590</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79559B8-6C72-44A3-BC0B-3F6368D6EBA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19326225" y="12439650"/>
+          <a:ext cx="2635340" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2725644</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36CC4CA-5A65-4EA0-81F8-54D47375E7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22221825" y="12420600"/>
+          <a:ext cx="2668494" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2747182</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5872104F-DB57-4F23-9083-F6A7CCD8ECB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13830300" y="14792325"/>
+          <a:ext cx="2690032" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2570221</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFC0E78-3E05-4238-B7D8-7D24EAA1B966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16649701" y="14859001"/>
+          <a:ext cx="2474970" cy="1971674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2729771</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1563C8D9-5245-48F0-AE56-13473447C96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19307175" y="14801850"/>
+          <a:ext cx="2653571" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>512513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2854EC3-B84F-48CE-8594-771BCA391792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22240875" y="14820901"/>
+          <a:ext cx="2638425" cy="2074612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2705101</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>285290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177B7EE0-8ECB-413B-A0B5-D26ACB770FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13849351" y="17173575"/>
+          <a:ext cx="2628900" cy="2047415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2646643</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537D803F-5910-44E2-9BAD-A0A808C511AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16602075" y="17192625"/>
+          <a:ext cx="2599018" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2806692</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7F8441-F08E-43C8-A601-3C21A22D7F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19364325" y="17192625"/>
+          <a:ext cx="2673342" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2695576</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>338948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198F6353-B6EC-48F4-9285-14452C7C9A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22250401" y="17211675"/>
+          <a:ext cx="2609850" cy="2062973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2727197</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9107F2-4A3D-45C3-9A67-3CCD3B56AEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13801725" y="19507200"/>
+          <a:ext cx="2698622" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2625231</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>466726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96DED21-9D1D-4DC8-9256-999C60D1FFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16611600" y="19583401"/>
+          <a:ext cx="2568081" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>482443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEABDFB3-89EE-4F2F-8D03-DF79D394EDD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354800" y="19497676"/>
+          <a:ext cx="2695575" cy="2120742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2690508</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0422F6-ABAE-44E0-AAC1-B1FA94F3AD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22212300" y="19554825"/>
+          <a:ext cx="2642883" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2746578</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C621F8-265F-4801-A8A1-F9C124DC7EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13925550" y="21831300"/>
+          <a:ext cx="2594178" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2600325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>544975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F15E8D9-E2AD-4357-8535-1B417C35FE8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16630650" y="21840825"/>
+          <a:ext cx="2524125" cy="1945150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2838450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>692111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6253AA-1798-4E28-B519-D385783E9525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19421475" y="21831300"/>
+          <a:ext cx="2647950" cy="2101811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2666926</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF021F0D-0071-4B09-94AE-9E7DADCDB1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22250400" y="21859875"/>
+          <a:ext cx="2581201" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2712109</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDF411B-F93B-4CFB-AB60-5BB61E655786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13792200" y="24145875"/>
+          <a:ext cx="2693059" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2571750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>248538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E1B017-C83E-47F8-87AB-749E4753F427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16621125" y="24174450"/>
+          <a:ext cx="2505075" cy="1991613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2855534</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6900E4A1-2F6E-41A4-9671-DB8140C2B4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19316700" y="24145875"/>
+          <a:ext cx="2769809" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2749382</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>352426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFDDD87-AF2F-4C98-B36D-1A3BDD9F2642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22183725" y="24136351"/>
+          <a:ext cx="2730332" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2751345</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0692264A-CDF2-485F-8A4F-21093E9D06A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13830300" y="26631900"/>
+          <a:ext cx="2694195" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>198835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA726F7-A3EA-4AE3-B427-A5868115C92A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16602075" y="26679525"/>
+          <a:ext cx="2571750" cy="2046685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2844543</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABA16D7-5650-4D15-A80B-1C6481E7021D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19326225" y="26603325"/>
+          <a:ext cx="2749293" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2764813</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71090C1B-DD9A-41C4-9C9B-C67181292F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22202776" y="26641425"/>
+          <a:ext cx="2726712" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>708190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E640738E-5DF6-4B69-B1D2-A120B9E8E708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13887450" y="29184601"/>
+          <a:ext cx="2428875" cy="2051214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2486026</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>642119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51130F5-6712-4D6E-98C4-0617B82F02EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16659226" y="29213175"/>
+          <a:ext cx="2381250" cy="1956569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2702579</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01111697-D1B9-44CA-870C-9BFE8B6C0C64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19383376" y="29270325"/>
+          <a:ext cx="2550178" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2495550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>658171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE4E2D6-90F2-4C91-8906-DB919CC15041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22383750" y="29232225"/>
+          <a:ext cx="2276475" cy="1953571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C9CA5C-81BF-4F66-8E90-D68D322B831C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13896975" y="31584900"/>
+          <a:ext cx="2571750" cy="1442301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2626360</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E1663A-FB83-4AF9-B032-9DA21C783959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16621125" y="31708725"/>
+          <a:ext cx="2559685" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2927585</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8C86DD-7586-4593-A66D-3622E8C28C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19307175" y="31556325"/>
+          <a:ext cx="2851385" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2757985</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEBF4A7-F2ED-4DB8-986A-8AAB77A947E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22288500" y="31594425"/>
+          <a:ext cx="2634160" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2693157</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>2019300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA569D32-AABF-4963-A448-97B9DF1B2713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13887451" y="35823525"/>
+          <a:ext cx="2578856" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2608654</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1866901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B9FA27-8364-4EA5-A8AA-16F76C896494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16640176" y="35871151"/>
+          <a:ext cx="2522928" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1959559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336731CD-F415-4E8E-BCA0-412572E1EE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354800" y="35852100"/>
+          <a:ext cx="2676525" cy="1864309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1832230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E573B3D-FA9E-49B4-936B-30FB7038DA77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22259925" y="35861625"/>
+          <a:ext cx="2628900" cy="1727455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2710814</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7F17CB-6BBF-4351-AFF0-9093A67653B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13858876" y="33766126"/>
+          <a:ext cx="2625088" cy="1609724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2638425</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>403471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B2FA5D-C9A9-4FC2-B66E-96A3947EB75D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16592550" y="33728026"/>
+          <a:ext cx="2600325" cy="1527420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2843040</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850C194A-1068-4545-8632-764FFB1C0D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19297651" y="33775651"/>
+          <a:ext cx="2776364" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2730233</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8432EC6-E009-4EEC-B988-4C2E93DDED5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22240875" y="33728025"/>
+          <a:ext cx="2654033" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3542ACED-FC5A-41CE-B411-3B15EAE34D58}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,26 +3557,29 @@
     <col min="3" max="3" width="45.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="68.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="44" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="9"/>
@@ -763,36 +3587,36 @@
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -805,7 +3629,7 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="15" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -821,42 +3645,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -872,33 +3696,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>2</v>
       </c>
@@ -911,7 +3735,7 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -927,42 +3751,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+    <row r="13" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -978,42 +3802,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+    <row r="16" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1029,33 +3853,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+    <row r="17" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+    <row r="18" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>3</v>
       </c>
@@ -1068,7 +3892,7 @@
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="15" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1084,14 +3908,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1104,35 +3928,35 @@
       <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -1148,42 +3972,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+    <row r="25" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+    <row r="26" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -1199,59 +4023,59 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+    <row r="27" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+    <row r="28" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+    <row r="30" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>4</v>
       </c>
@@ -1264,7 +4088,7 @@
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -1280,55 +4104,55 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+    <row r="35" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -1344,42 +4168,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+    <row r="36" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+    <row r="37" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="13"/>
       <c r="D37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+    <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -1395,53 +4219,53 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+    <row r="39" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="13"/>
       <c r="D39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+    <row r="40" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+    <row r="41" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="13"/>
       <c r="D41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+    <row r="42" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -1460,7 +4284,7 @@
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="15" t="s">
         <v>70</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -1476,53 +4300,53 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="15"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="15"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="12"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -1535,13 +4359,13 @@
       <c r="B48" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -1557,55 +4381,55 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="18"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="15"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="18"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="18"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="15"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F52" s="9" t="s">
@@ -1621,59 +4445,59 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="18"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="12"/>
+      <c r="E53" s="15"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="18"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="18"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="12"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
+    <row r="56" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
         <v>7</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -1689,59 +4513,59 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+    <row r="57" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="17"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+    <row r="58" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="17"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+    <row r="59" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="17"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+    <row r="60" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="17"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>8</v>
       </c>
@@ -1772,43 +4596,70 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
@@ -1833,75 +4684,49 @@
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
     <mergeCell ref="E38:E42"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>